--- a/data/pca/factorExposure/factorExposure_2017-10-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-10-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02349205762742606</v>
+        <v>0.01514907005748942</v>
       </c>
       <c r="C2">
-        <v>-0.003074213479044786</v>
+        <v>-0.0386272386361893</v>
       </c>
       <c r="D2">
-        <v>-0.01903303989041436</v>
+        <v>-0.02847643471677519</v>
       </c>
       <c r="E2">
-        <v>-0.01185908618195376</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03282063227281481</v>
+      </c>
+      <c r="F2">
+        <v>-0.02108672549782144</v>
+      </c>
+      <c r="G2">
+        <v>0.01790446563349393</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01233633898906075</v>
+        <v>0.05417407434971214</v>
       </c>
       <c r="C3">
-        <v>-0.04362919830693972</v>
+        <v>-0.07742213471498789</v>
       </c>
       <c r="D3">
-        <v>-0.02225213572550295</v>
+        <v>-0.01515147658051452</v>
       </c>
       <c r="E3">
-        <v>-0.009470916161606233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.09949847672052835</v>
+      </c>
+      <c r="F3">
+        <v>-0.05081046378243947</v>
+      </c>
+      <c r="G3">
+        <v>0.07424727672615127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02240024950495947</v>
+        <v>0.0553701107372795</v>
       </c>
       <c r="C4">
-        <v>-0.01712249584367039</v>
+        <v>-0.06343909546290455</v>
       </c>
       <c r="D4">
-        <v>-0.0643284494199948</v>
+        <v>-0.02287463802257866</v>
       </c>
       <c r="E4">
-        <v>0.006831072024173023</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01000254946739007</v>
+      </c>
+      <c r="F4">
+        <v>-0.008912837729083911</v>
+      </c>
+      <c r="G4">
+        <v>0.04481019771968738</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01531575242663604</v>
+        <v>0.03262621148373937</v>
       </c>
       <c r="C6">
-        <v>-0.02592944253492272</v>
+        <v>-0.05288981680826018</v>
       </c>
       <c r="D6">
-        <v>-0.08415329462997354</v>
+        <v>-0.01623001073532997</v>
       </c>
       <c r="E6">
-        <v>-0.009076199542634554</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.008870227471744012</v>
+      </c>
+      <c r="F6">
+        <v>-0.0139058123630398</v>
+      </c>
+      <c r="G6">
+        <v>0.02466938208669148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01064068935218158</v>
+        <v>0.01951433243725368</v>
       </c>
       <c r="C7">
-        <v>-0.00866115208178013</v>
+        <v>-0.03652707363113562</v>
       </c>
       <c r="D7">
-        <v>-0.04063016434913748</v>
+        <v>-0.01265332051968536</v>
       </c>
       <c r="E7">
-        <v>0.06565007571925172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.01338189321625368</v>
+      </c>
+      <c r="F7">
+        <v>-0.008287723044394438</v>
+      </c>
+      <c r="G7">
+        <v>0.07698911785593548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0001328306019366427</v>
+        <v>-0.001269346201637856</v>
       </c>
       <c r="C8">
-        <v>0.007744969571399332</v>
+        <v>-0.01537783376688573</v>
       </c>
       <c r="D8">
-        <v>-0.01944250178378793</v>
+        <v>-0.003856024744490708</v>
       </c>
       <c r="E8">
-        <v>0.002251750579252688</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.01770538335330413</v>
+      </c>
+      <c r="F8">
+        <v>-0.01083684719855751</v>
+      </c>
+      <c r="G8">
+        <v>0.02527750278444097</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01475185028609372</v>
+        <v>0.02856673527895953</v>
       </c>
       <c r="C9">
-        <v>-0.01653034993057964</v>
+        <v>-0.04307204564691583</v>
       </c>
       <c r="D9">
-        <v>-0.04742003715538904</v>
+        <v>-0.01588312366105332</v>
       </c>
       <c r="E9">
-        <v>-0.001824983168078165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01259784371533152</v>
+      </c>
+      <c r="F9">
+        <v>-0.01648921786196432</v>
+      </c>
+      <c r="G9">
+        <v>0.03644795622174217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.007868684664223229</v>
+        <v>0.08939219682034326</v>
       </c>
       <c r="C10">
-        <v>-0.1406186328624914</v>
+        <v>0.1842578395215265</v>
       </c>
       <c r="D10">
-        <v>0.1311660142797176</v>
+        <v>0.01860947752787714</v>
       </c>
       <c r="E10">
-        <v>0.0271177639820338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01747907587238037</v>
+      </c>
+      <c r="F10">
+        <v>0.01309775761354265</v>
+      </c>
+      <c r="G10">
+        <v>0.04117209589002212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0002161690915784375</v>
+        <v>0.03557412434974315</v>
       </c>
       <c r="C11">
-        <v>-0.007570321557237004</v>
+        <v>-0.05391660526658142</v>
       </c>
       <c r="D11">
-        <v>-0.04554169636061045</v>
+        <v>-0.001766665092811379</v>
       </c>
       <c r="E11">
-        <v>-0.01513457990982135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.003143515319531073</v>
+      </c>
+      <c r="F11">
+        <v>-0.02143186028313084</v>
+      </c>
+      <c r="G11">
+        <v>0.01907884691853124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005576095918132832</v>
+        <v>0.03267773176278986</v>
       </c>
       <c r="C12">
-        <v>-0.01677184074750351</v>
+        <v>-0.04573823028250006</v>
       </c>
       <c r="D12">
-        <v>-0.0475544052228347</v>
+        <v>-0.00577970476097452</v>
       </c>
       <c r="E12">
-        <v>-0.008226732025725028</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.006160227810445337</v>
+      </c>
+      <c r="F12">
+        <v>-0.006074861848433525</v>
+      </c>
+      <c r="G12">
+        <v>0.02280467078620705</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02119866644521402</v>
+        <v>0.01282019656591306</v>
       </c>
       <c r="C13">
-        <v>-0.0143325232371482</v>
+        <v>-0.03127643511951714</v>
       </c>
       <c r="D13">
-        <v>-0.01283809436832947</v>
+        <v>-0.02483705034933821</v>
       </c>
       <c r="E13">
-        <v>-0.009060431440350498</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02723998955980419</v>
+      </c>
+      <c r="F13">
+        <v>-0.01187175506984287</v>
+      </c>
+      <c r="G13">
+        <v>0.031901129124815</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006967921100340323</v>
+        <v>0.008831641240559478</v>
       </c>
       <c r="C14">
-        <v>-0.01599166668278887</v>
+        <v>-0.02679328262224031</v>
       </c>
       <c r="D14">
-        <v>-0.01594921574083656</v>
+        <v>-0.00843233761939431</v>
       </c>
       <c r="E14">
-        <v>0.01013226506046268</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.005647765375354334</v>
+      </c>
+      <c r="F14">
+        <v>0.001003519069592134</v>
+      </c>
+      <c r="G14">
+        <v>0.03877416477620044</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0007272723069327742</v>
+        <v>0.0321649289014881</v>
       </c>
       <c r="C16">
-        <v>-0.01320828930120129</v>
+        <v>-0.04443266043403377</v>
       </c>
       <c r="D16">
-        <v>-0.05108437173793631</v>
+        <v>-0.001357942168809853</v>
       </c>
       <c r="E16">
-        <v>-0.0103924739318024</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.003678765459123259</v>
+      </c>
+      <c r="F16">
+        <v>-0.006155078199561161</v>
+      </c>
+      <c r="G16">
+        <v>0.02230868603236941</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01245325292801001</v>
+        <v>0.02965500487980352</v>
       </c>
       <c r="C19">
-        <v>-0.02127194170452677</v>
+        <v>-0.05366448858831731</v>
       </c>
       <c r="D19">
-        <v>-0.03138934583983916</v>
+        <v>-0.01589798183933384</v>
       </c>
       <c r="E19">
-        <v>-0.001809105702204582</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.04948772408952194</v>
+      </c>
+      <c r="F19">
+        <v>-0.02794782775042594</v>
+      </c>
+      <c r="G19">
+        <v>0.04230423610227202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01008175653181255</v>
+        <v>0.01225172700902736</v>
       </c>
       <c r="C20">
-        <v>-0.003755305907604691</v>
+        <v>-0.03540984121782442</v>
       </c>
       <c r="D20">
-        <v>-0.01450168553797784</v>
+        <v>-0.01322661267360495</v>
       </c>
       <c r="E20">
-        <v>0.001705868068089322</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02293293468336266</v>
+      </c>
+      <c r="F20">
+        <v>0.0005909264081831408</v>
+      </c>
+      <c r="G20">
+        <v>0.03626618411509319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01341429522818332</v>
+        <v>0.01481839472022951</v>
       </c>
       <c r="C21">
-        <v>-0.03399394623208181</v>
+        <v>-0.03383117256267718</v>
       </c>
       <c r="D21">
-        <v>-0.01608394031137838</v>
+        <v>-0.01622147559582219</v>
       </c>
       <c r="E21">
-        <v>0.01898129079766782</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03392665231560481</v>
+      </c>
+      <c r="F21">
+        <v>-0.008648395130727368</v>
+      </c>
+      <c r="G21">
+        <v>0.05870089310658108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004657971528300229</v>
+        <v>0.02645375669596388</v>
       </c>
       <c r="C24">
-        <v>-0.007927474993350095</v>
+        <v>-0.04706816133840395</v>
       </c>
       <c r="D24">
-        <v>-0.046276818712792</v>
+        <v>-0.006563586191492238</v>
       </c>
       <c r="E24">
-        <v>-0.0105921498930827</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.00218674649644486</v>
+      </c>
+      <c r="F24">
+        <v>-0.01836149334177633</v>
+      </c>
+      <c r="G24">
+        <v>0.02120445212580558</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.0109398810984295</v>
+        <v>0.04355897544089454</v>
       </c>
       <c r="C25">
-        <v>-0.02457974159717264</v>
+        <v>-0.05441121527543747</v>
       </c>
       <c r="D25">
-        <v>-0.04470305742474513</v>
+        <v>-0.01053665637193305</v>
       </c>
       <c r="E25">
-        <v>-0.009651808332317534</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.009267363012778553</v>
+      </c>
+      <c r="F25">
+        <v>-0.01375827610521377</v>
+      </c>
+      <c r="G25">
+        <v>0.02698888083468027</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02279283248062221</v>
+        <v>0.009525331216444577</v>
       </c>
       <c r="C26">
-        <v>-0.008868559043304608</v>
+        <v>-0.009967068186231791</v>
       </c>
       <c r="D26">
-        <v>0.002843493036206731</v>
+        <v>-0.02377514308627162</v>
       </c>
       <c r="E26">
-        <v>0.007741178053101248</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.009704287327494607</v>
+      </c>
+      <c r="F26">
+        <v>-0.001564355544367976</v>
+      </c>
+      <c r="G26">
+        <v>0.02855110461016285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.02459655211094193</v>
+        <v>0.1150019565844947</v>
       </c>
       <c r="C28">
-        <v>-0.2088126574500687</v>
+        <v>0.2274256969724944</v>
       </c>
       <c r="D28">
-        <v>0.1879606858208509</v>
+        <v>0.009691764810073457</v>
       </c>
       <c r="E28">
-        <v>0.03903055932116964</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.007624337037634752</v>
+      </c>
+      <c r="F28">
+        <v>0.007427338944624845</v>
+      </c>
+      <c r="G28">
+        <v>0.0581153044907339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007234138087478983</v>
+        <v>0.01377102677492722</v>
       </c>
       <c r="C29">
-        <v>-0.0199923358092828</v>
+        <v>-0.02089744889393628</v>
       </c>
       <c r="D29">
-        <v>-0.01307080956962989</v>
+        <v>-0.007159365470696569</v>
       </c>
       <c r="E29">
-        <v>0.005110540838439589</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.006064499463576922</v>
+      </c>
+      <c r="F29">
+        <v>0.01136050294390129</v>
+      </c>
+      <c r="G29">
+        <v>0.029018491531222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02406250404199071</v>
+        <v>0.04227698618771941</v>
       </c>
       <c r="C30">
-        <v>-0.01339436378822599</v>
+        <v>-0.07122850228450876</v>
       </c>
       <c r="D30">
-        <v>-0.06392517139270616</v>
+        <v>-0.02727479210951297</v>
       </c>
       <c r="E30">
-        <v>-0.06933370759324518</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.02865214590094286</v>
+      </c>
+      <c r="F30">
+        <v>-0.0411982012437184</v>
+      </c>
+      <c r="G30">
+        <v>0.003427266724063604</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.006491686786256492</v>
+        <v>0.04533846874508082</v>
       </c>
       <c r="C31">
-        <v>-0.04876814128878218</v>
+        <v>-0.03165632461891143</v>
       </c>
       <c r="D31">
-        <v>-0.03804819131543314</v>
+        <v>-0.003052535810255339</v>
       </c>
       <c r="E31">
-        <v>0.0004599139336289876</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.009318554653781577</v>
+      </c>
+      <c r="F31">
+        <v>0.0376933586302448</v>
+      </c>
+      <c r="G31">
+        <v>0.02774071163182941</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007153105027112602</v>
+        <v>0.00657954521814154</v>
       </c>
       <c r="C32">
-        <v>-0.01268358171744221</v>
+        <v>-0.03333469639168712</v>
       </c>
       <c r="D32">
-        <v>-0.01210539032666814</v>
+        <v>0.004392319878890921</v>
       </c>
       <c r="E32">
-        <v>0.02147111307701105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01868586953323953</v>
+      </c>
+      <c r="F32">
+        <v>-0.06608712145034797</v>
+      </c>
+      <c r="G32">
+        <v>0.04876697197740059</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01201442575098908</v>
+        <v>0.02836752061181309</v>
       </c>
       <c r="C33">
-        <v>-0.02539901160590549</v>
+        <v>-0.05122901517432565</v>
       </c>
       <c r="D33">
-        <v>-0.02294150166026905</v>
+        <v>-0.01428890426914852</v>
       </c>
       <c r="E33">
-        <v>-0.02830381673399204</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02369233004877767</v>
+      </c>
+      <c r="F33">
+        <v>-0.02335699726750504</v>
+      </c>
+      <c r="G33">
+        <v>0.02930651499564256</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.005161861605350666</v>
+        <v>0.04524880666630945</v>
       </c>
       <c r="C34">
-        <v>-0.02056720141893614</v>
+        <v>-0.05528074583532469</v>
       </c>
       <c r="D34">
-        <v>-0.04991023950634062</v>
+        <v>0.005486969962464544</v>
       </c>
       <c r="E34">
-        <v>-0.001321830934640415</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.008633634276797052</v>
+      </c>
+      <c r="F34">
+        <v>-0.02200154150833913</v>
+      </c>
+      <c r="G34">
+        <v>0.03300293860751811</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.0115474454056923</v>
+        <v>0.01140551889814511</v>
       </c>
       <c r="C36">
-        <v>-0.01864663428350271</v>
+        <v>-0.007191017491718962</v>
       </c>
       <c r="D36">
-        <v>-0.001507654685304405</v>
+        <v>-0.01130885167977383</v>
       </c>
       <c r="E36">
-        <v>0.0009798426740646302</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.002199738718899751</v>
+      </c>
+      <c r="F36">
+        <v>0.002754000363247744</v>
+      </c>
+      <c r="G36">
+        <v>0.02252698070111862</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.006334046413210758</v>
+        <v>0.03367065515152449</v>
       </c>
       <c r="C38">
-        <v>-0.02886423481228793</v>
+        <v>-0.02607856554345648</v>
       </c>
       <c r="D38">
-        <v>-0.02505570203678211</v>
+        <v>0.007952138594658726</v>
       </c>
       <c r="E38">
-        <v>-0.003583533738894779</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.003863116676906358</v>
+      </c>
+      <c r="F38">
+        <v>0.00179459918927594</v>
+      </c>
+      <c r="G38">
+        <v>0.02980280958185534</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.006079517595560711</v>
+        <v>0.03287445126392666</v>
       </c>
       <c r="C39">
-        <v>0.01290871163518209</v>
+        <v>-0.08196228139694128</v>
       </c>
       <c r="D39">
-        <v>-0.09743707970816361</v>
+        <v>-0.01199934076215938</v>
       </c>
       <c r="E39">
-        <v>-0.0199886350951796</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02056286935333044</v>
+      </c>
+      <c r="F39">
+        <v>-0.0358577079832273</v>
+      </c>
+      <c r="G39">
+        <v>0.0236978904071377</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01075802805938615</v>
+        <v>0.02101742428213969</v>
       </c>
       <c r="C40">
-        <v>-0.01743836384615569</v>
+        <v>-0.03108118697628201</v>
       </c>
       <c r="D40">
-        <v>-0.0414546042567643</v>
+        <v>-0.01313923271965549</v>
       </c>
       <c r="E40">
-        <v>-0.01677721587506286</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.02195670671045987</v>
+      </c>
+      <c r="F40">
+        <v>-0.01615146500190534</v>
+      </c>
+      <c r="G40">
+        <v>0.02381867593480321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.004877971813076169</v>
+        <v>0.01213212705207975</v>
       </c>
       <c r="C41">
-        <v>-0.01934133752512597</v>
+        <v>0.0009980016093955467</v>
       </c>
       <c r="D41">
-        <v>0.008059711888449039</v>
+        <v>-0.003529229626937486</v>
       </c>
       <c r="E41">
-        <v>0.002684310956624194</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.003364509174079053</v>
+      </c>
+      <c r="F41">
+        <v>-0.000423955515317606</v>
+      </c>
+      <c r="G41">
+        <v>0.01393439717820489</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09100009513898365</v>
+        <v>0.02159956129436734</v>
       </c>
       <c r="C42">
-        <v>-0.01280290291379677</v>
+        <v>-0.04945747821916757</v>
       </c>
       <c r="D42">
-        <v>-0.219663103132893</v>
+        <v>-0.09801949436901454</v>
       </c>
       <c r="E42">
-        <v>-0.2749296948307418</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.04341310570849284</v>
+      </c>
+      <c r="F42">
+        <v>0.06841124652935757</v>
+      </c>
+      <c r="G42">
+        <v>-0.1778131491658702</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.005716110696484683</v>
+        <v>0.02822014715469947</v>
       </c>
       <c r="C43">
-        <v>-0.02260738015625791</v>
+        <v>-0.008302971483919586</v>
       </c>
       <c r="D43">
-        <v>0.01218309651854708</v>
+        <v>-0.003764293485538583</v>
       </c>
       <c r="E43">
-        <v>-0.001065496649873746</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.004401417230465217</v>
+      </c>
+      <c r="F43">
+        <v>0.001898877165054757</v>
+      </c>
+      <c r="G43">
+        <v>0.0199412539583964</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.003271770001512439</v>
+        <v>0.01660984515033949</v>
       </c>
       <c r="C44">
-        <v>-0.0004748694877592891</v>
+        <v>-0.04792383149190916</v>
       </c>
       <c r="D44">
-        <v>-0.02891423165026854</v>
+        <v>-0.006566145839832002</v>
       </c>
       <c r="E44">
-        <v>0.0004805147638620852</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01642439508369847</v>
+      </c>
+      <c r="F44">
+        <v>-0.01872138335652396</v>
+      </c>
+      <c r="G44">
+        <v>0.03584461230646609</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01047057907046883</v>
+        <v>0.005399378408704989</v>
       </c>
       <c r="C46">
-        <v>-0.01825794645955419</v>
+        <v>-0.01703662301641507</v>
       </c>
       <c r="D46">
-        <v>-0.01645930738290182</v>
+        <v>-0.01164619731971523</v>
       </c>
       <c r="E46">
-        <v>-0.003821060677894073</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.0002356726717112555</v>
+      </c>
+      <c r="F46">
+        <v>0.01529922482311747</v>
+      </c>
+      <c r="G46">
+        <v>0.02651313364707249</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.0001778471333056073</v>
+        <v>0.07381370020090199</v>
       </c>
       <c r="C47">
-        <v>-0.06241616618342229</v>
+        <v>-0.06369733519900916</v>
       </c>
       <c r="D47">
-        <v>-0.04573630906906593</v>
+        <v>0.005232279039868492</v>
       </c>
       <c r="E47">
-        <v>-0.01084028818604963</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.01797636309125801</v>
+      </c>
+      <c r="F47">
+        <v>0.0595788456449797</v>
+      </c>
+      <c r="G47">
+        <v>0.02651547976850353</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.002380668032329837</v>
+        <v>0.01988232925240628</v>
       </c>
       <c r="C48">
-        <v>-0.02588695412721507</v>
+        <v>-0.01062445642437602</v>
       </c>
       <c r="D48">
-        <v>-0.01077909588547826</v>
+        <v>-0.0008640161769781224</v>
       </c>
       <c r="E48">
-        <v>-0.002088561957639697</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.003411548180172683</v>
+      </c>
+      <c r="F48">
+        <v>0.01442206396910099</v>
+      </c>
+      <c r="G48">
+        <v>0.02680798813431308</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.001690054546301787</v>
+        <v>0.07963155696609865</v>
       </c>
       <c r="C50">
-        <v>-0.05346480500644782</v>
+        <v>-0.06587901412213287</v>
       </c>
       <c r="D50">
-        <v>-0.05995566946687524</v>
+        <v>0.004102861112220594</v>
       </c>
       <c r="E50">
-        <v>0.01417916629434664</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01896721656036454</v>
+      </c>
+      <c r="F50">
+        <v>0.05475840432974761</v>
+      </c>
+      <c r="G50">
+        <v>0.04656335835864554</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.006793528032781284</v>
+        <v>0.01229828226614424</v>
       </c>
       <c r="C51">
-        <v>-0.01750941674442423</v>
+        <v>-0.02854405667481508</v>
       </c>
       <c r="D51">
-        <v>0.01234575191333997</v>
+        <v>-0.008998776119908038</v>
       </c>
       <c r="E51">
-        <v>0.01166586212078054</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01159483014319492</v>
+      </c>
+      <c r="F51">
+        <v>-0.02907338303288197</v>
+      </c>
+      <c r="G51">
+        <v>0.04792211786013741</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.003172483937959911</v>
+        <v>0.09535741583201567</v>
       </c>
       <c r="C53">
-        <v>-0.08641184491862237</v>
+        <v>-0.07901684454176</v>
       </c>
       <c r="D53">
-        <v>-0.09738079053007269</v>
+        <v>0.005850447139707426</v>
       </c>
       <c r="E53">
-        <v>-0.0109154813374594</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.04339275833192886</v>
+      </c>
+      <c r="F53">
+        <v>0.0651398655691791</v>
+      </c>
+      <c r="G53">
+        <v>0.02503957514194069</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001745424691474197</v>
+        <v>0.02946489997158363</v>
       </c>
       <c r="C54">
-        <v>-0.03526177764163806</v>
+        <v>-0.006751430546186182</v>
       </c>
       <c r="D54">
-        <v>0.009837620298832688</v>
+        <v>0.003390007320596758</v>
       </c>
       <c r="E54">
-        <v>0.01237231509181205</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.005011738440381098</v>
+      </c>
+      <c r="F54">
+        <v>0.002163822110650335</v>
+      </c>
+      <c r="G54">
+        <v>0.03298571967558822</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.0006884421194691822</v>
+        <v>0.07300718364903619</v>
       </c>
       <c r="C55">
-        <v>-0.059347448857899</v>
+        <v>-0.07310574061833766</v>
       </c>
       <c r="D55">
-        <v>-0.0858375814483648</v>
+        <v>0.004787951656603318</v>
       </c>
       <c r="E55">
-        <v>-0.01956642407685526</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.03241873633783313</v>
+      </c>
+      <c r="F55">
+        <v>0.05885205719345856</v>
+      </c>
+      <c r="G55">
+        <v>0.01130251346840611</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.0001641050723223087</v>
+        <v>0.1456090447440407</v>
       </c>
       <c r="C56">
-        <v>-0.107322916828859</v>
+        <v>-0.1014277389694279</v>
       </c>
       <c r="D56">
-        <v>-0.1288208959520201</v>
+        <v>0.01410502883022076</v>
       </c>
       <c r="E56">
-        <v>-0.02746909879914003</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.04262012535403038</v>
+      </c>
+      <c r="F56">
+        <v>0.1008293344520974</v>
+      </c>
+      <c r="G56">
+        <v>0.002709141456161588</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02251815904217626</v>
+        <v>0.01203159544165045</v>
       </c>
       <c r="C57">
-        <v>-0.0143768740746674</v>
+        <v>-0.01138429824916056</v>
       </c>
       <c r="D57">
-        <v>-0.04189403673392917</v>
+        <v>-0.02370655666413597</v>
       </c>
       <c r="E57">
-        <v>-0.01122409613354096</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.0301357400165996</v>
+      </c>
+      <c r="F57">
+        <v>-0.01345698726808834</v>
+      </c>
+      <c r="G57">
+        <v>0.02048878062761266</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.006451487759509462</v>
+        <v>0.07013425475179406</v>
       </c>
       <c r="C58">
-        <v>-0.05217405198574063</v>
+        <v>-0.05810041507069608</v>
       </c>
       <c r="D58">
-        <v>-0.07315734823309136</v>
+        <v>-0.01953905936737923</v>
       </c>
       <c r="E58">
-        <v>-0.1591537466680993</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.928479948990055</v>
+      </c>
+      <c r="F58">
+        <v>0.2846889929132358</v>
+      </c>
+      <c r="G58">
+        <v>0.03200295895166997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.02133648068804046</v>
+        <v>0.1510607929558106</v>
       </c>
       <c r="C59">
-        <v>-0.2221045516860895</v>
+        <v>0.2114415109940004</v>
       </c>
       <c r="D59">
-        <v>0.189871607531942</v>
+        <v>0.0161514289626373</v>
       </c>
       <c r="E59">
-        <v>0.013380473838065</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01477171555368644</v>
+      </c>
+      <c r="F59">
+        <v>-0.01124727032675888</v>
+      </c>
+      <c r="G59">
+        <v>0.02145683363119497</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.02822597459601585</v>
+        <v>0.2921985891269573</v>
       </c>
       <c r="C60">
-        <v>-0.1694581151897874</v>
+        <v>-0.09115264472762964</v>
       </c>
       <c r="D60">
-        <v>-0.08766483118685335</v>
+        <v>-0.009162579321703805</v>
       </c>
       <c r="E60">
-        <v>-0.06263044855498201</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.03230488100932809</v>
+      </c>
+      <c r="F60">
+        <v>-0.3791527485782133</v>
+      </c>
+      <c r="G60">
+        <v>-0.0982069813641019</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002966503791249024</v>
+        <v>0.03381060519961144</v>
       </c>
       <c r="C61">
-        <v>-0.01132698664526544</v>
+        <v>-0.06344295073545568</v>
       </c>
       <c r="D61">
-        <v>-0.06749207989663648</v>
+        <v>-0.005249623294892988</v>
       </c>
       <c r="E61">
-        <v>-0.01401665024690736</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01116543437558948</v>
+      </c>
+      <c r="F61">
+        <v>-0.01978351963127925</v>
+      </c>
+      <c r="G61">
+        <v>0.02321529428618519</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007096512999555778</v>
+        <v>0.01414972819532164</v>
       </c>
       <c r="C63">
-        <v>-0.009126031545313445</v>
+        <v>-0.02690010308528714</v>
       </c>
       <c r="D63">
-        <v>-0.01164485270431904</v>
+        <v>-0.007932374103757406</v>
       </c>
       <c r="E63">
-        <v>0.004060958514119473</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.006573883336264309</v>
+      </c>
+      <c r="F63">
+        <v>0.008980164015089618</v>
+      </c>
+      <c r="G63">
+        <v>0.03289682166719094</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.006540448998810011</v>
+        <v>0.04845219263615719</v>
       </c>
       <c r="C64">
-        <v>-0.03594278167152957</v>
+        <v>-0.03760167791588106</v>
       </c>
       <c r="D64">
-        <v>-0.06466813827633061</v>
+        <v>-0.004808947611164118</v>
       </c>
       <c r="E64">
-        <v>-0.01789817768156003</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.007827941933939188</v>
+      </c>
+      <c r="F64">
+        <v>-0.005507328898737043</v>
+      </c>
+      <c r="G64">
+        <v>0.02051955589348282</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01769166665297269</v>
+        <v>0.08194306265170506</v>
       </c>
       <c r="C65">
-        <v>-0.0326259013617492</v>
+        <v>-0.0647814753609087</v>
       </c>
       <c r="D65">
-        <v>-0.09486330587888145</v>
+        <v>-0.01526237876317393</v>
       </c>
       <c r="E65">
-        <v>-0.01337027654628211</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.008437905595646214</v>
+      </c>
+      <c r="F65">
+        <v>-0.03651093615431477</v>
+      </c>
+      <c r="G65">
+        <v>0.009038911852417023</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005633184734552927</v>
+        <v>0.05423650905650845</v>
       </c>
       <c r="C66">
-        <v>0.001719324182643725</v>
+        <v>-0.1150257148289854</v>
       </c>
       <c r="D66">
-        <v>-0.1177235047101145</v>
+        <v>-0.01143288408692587</v>
       </c>
       <c r="E66">
-        <v>-0.04004867347932684</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02219696760261414</v>
+      </c>
+      <c r="F66">
+        <v>-0.04346045480583822</v>
+      </c>
+      <c r="G66">
+        <v>0.01363521138883466</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.001570570196173103</v>
+        <v>0.0570578171318171</v>
       </c>
       <c r="C67">
-        <v>-0.04742731164566778</v>
+        <v>-0.03038475480447444</v>
       </c>
       <c r="D67">
-        <v>-0.02637069601486276</v>
+        <v>0.006412881012729894</v>
       </c>
       <c r="E67">
-        <v>-0.006169320819478703</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.003035869077408686</v>
+      </c>
+      <c r="F67">
+        <v>0.003870571488876157</v>
+      </c>
+      <c r="G67">
+        <v>0.0282803281956587</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.03811525166586704</v>
+        <v>0.1355059409758271</v>
       </c>
       <c r="C68">
-        <v>-0.1873857966677251</v>
+        <v>0.2727027238379641</v>
       </c>
       <c r="D68">
-        <v>0.181725024314666</v>
+        <v>-0.001605755874119462</v>
       </c>
       <c r="E68">
-        <v>0.01570560880347676</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01669054471024644</v>
+      </c>
+      <c r="F68">
+        <v>0.01818781547632115</v>
+      </c>
+      <c r="G68">
+        <v>0.02086885729944616</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.003589349809923085</v>
+        <v>0.07868948889497979</v>
       </c>
       <c r="C69">
-        <v>-0.0502572981114723</v>
+        <v>-0.0647990438110327</v>
       </c>
       <c r="D69">
-        <v>-0.05229844915719171</v>
+        <v>0.00932863806883364</v>
       </c>
       <c r="E69">
-        <v>-0.006220809377963904</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.0341986719625441</v>
+      </c>
+      <c r="F69">
+        <v>0.04199956250029585</v>
+      </c>
+      <c r="G69">
+        <v>0.02647429815927773</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.02635857656641362</v>
+        <v>0.1296254694959346</v>
       </c>
       <c r="C71">
-        <v>-0.1660480207356385</v>
+        <v>0.2285451736346887</v>
       </c>
       <c r="D71">
-        <v>0.1593487883830612</v>
+        <v>0.007185280845306569</v>
       </c>
       <c r="E71">
-        <v>0.02310966837540772</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02562842498001563</v>
+      </c>
+      <c r="F71">
+        <v>0.01831092685020086</v>
+      </c>
+      <c r="G71">
+        <v>0.03413956947778975</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.002411965411925595</v>
+        <v>0.08481500153730895</v>
       </c>
       <c r="C72">
-        <v>-0.05848785895689982</v>
+        <v>-0.07603220890129705</v>
       </c>
       <c r="D72">
-        <v>-0.1359016252751477</v>
+        <v>0.008848702635936076</v>
       </c>
       <c r="E72">
-        <v>-0.04945448328996845</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.01425017678612784</v>
+      </c>
+      <c r="F72">
+        <v>-0.03443823990213087</v>
+      </c>
+      <c r="G72">
+        <v>0.002468901029237503</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.04148357888948713</v>
+        <v>0.4029845460337522</v>
       </c>
       <c r="C73">
-        <v>-0.2032865173050483</v>
+        <v>-0.1059169504630286</v>
       </c>
       <c r="D73">
-        <v>-0.149923190796323</v>
+        <v>-0.01370161370571224</v>
       </c>
       <c r="E73">
-        <v>-0.1363643777368289</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.09754661970808877</v>
+      </c>
+      <c r="F73">
+        <v>-0.5343096667145038</v>
+      </c>
+      <c r="G73">
+        <v>-0.1573368877149536</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.001213586870089255</v>
+        <v>0.1169017473306597</v>
       </c>
       <c r="C74">
-        <v>-0.09927606931924098</v>
+        <v>-0.1174296826274313</v>
       </c>
       <c r="D74">
-        <v>-0.1252521943684887</v>
+        <v>0.01037727687333376</v>
       </c>
       <c r="E74">
-        <v>-0.03407344976478442</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.03895617258799645</v>
+      </c>
+      <c r="F74">
+        <v>0.07000512976816085</v>
+      </c>
+      <c r="G74">
+        <v>0.02418452547523021</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.001100928216800212</v>
+        <v>0.2609265106534414</v>
       </c>
       <c r="C75">
-        <v>-0.2282015585974287</v>
+        <v>-0.1460534962306141</v>
       </c>
       <c r="D75">
-        <v>-0.214145333766883</v>
+        <v>0.03209039023914243</v>
       </c>
       <c r="E75">
-        <v>-0.06494491034981124</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.08209409145280773</v>
+      </c>
+      <c r="F75">
+        <v>0.2173239524945089</v>
+      </c>
+      <c r="G75">
+        <v>-0.03085646737290133</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.005757570638754411</v>
+        <v>0.1368807436670984</v>
       </c>
       <c r="C76">
-        <v>-0.1754741624350071</v>
+        <v>-0.1212391357944184</v>
       </c>
       <c r="D76">
-        <v>-0.1996111606993955</v>
+        <v>0.02199066322967242</v>
       </c>
       <c r="E76">
-        <v>-0.03151690151030527</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.07406891991917874</v>
+      </c>
+      <c r="F76">
+        <v>0.1297976155900998</v>
+      </c>
+      <c r="G76">
+        <v>0.01572025653803451</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01204365304980227</v>
+        <v>0.06395883467891317</v>
       </c>
       <c r="C77">
-        <v>-0.01677253563837654</v>
+        <v>-0.06071223125292097</v>
       </c>
       <c r="D77">
-        <v>-0.06167020509560647</v>
+        <v>-0.01220426174595208</v>
       </c>
       <c r="E77">
-        <v>-0.01257367700349898</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04784469591310136</v>
+      </c>
+      <c r="F77">
+        <v>-0.01080613118218887</v>
+      </c>
+      <c r="G77">
+        <v>0.05192654843634947</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004601201453354783</v>
+        <v>0.04077064064699128</v>
       </c>
       <c r="C78">
-        <v>-0.01921341404627083</v>
+        <v>-0.05054362552791578</v>
       </c>
       <c r="D78">
-        <v>-0.06273610960823149</v>
+        <v>-0.005523689383283442</v>
       </c>
       <c r="E78">
-        <v>-0.01329703484916375</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02414362722889317</v>
+      </c>
+      <c r="F78">
+        <v>-0.03711068904890146</v>
+      </c>
+      <c r="G78">
+        <v>0.03417228183963592</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01432030215856927</v>
+        <v>0.06102474919353874</v>
       </c>
       <c r="C80">
-        <v>-0.1600648336297532</v>
+        <v>-0.06814939783239153</v>
       </c>
       <c r="D80">
-        <v>-0.2781851491714235</v>
+        <v>-0.01207617060895176</v>
       </c>
       <c r="E80">
-        <v>0.8965746421616481</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.04706033705500953</v>
+      </c>
+      <c r="F80">
+        <v>-0.08489201368655111</v>
+      </c>
+      <c r="G80">
+        <v>0.9137002476145231</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.000260647616094811</v>
+        <v>0.1435591345116977</v>
       </c>
       <c r="C81">
-        <v>-0.14719277188933</v>
+        <v>-0.09336576039946765</v>
       </c>
       <c r="D81">
-        <v>-0.1416117236034055</v>
+        <v>0.01614502455602099</v>
       </c>
       <c r="E81">
-        <v>-0.03222562058764764</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.04987581301663681</v>
+      </c>
+      <c r="F81">
+        <v>0.1338223375598412</v>
+      </c>
+      <c r="G81">
+        <v>0.01927290834038756</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.05338635750042053</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.0370807273572903</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002936585118452586</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.01906227427032111</v>
+      </c>
+      <c r="F82">
+        <v>0.005895159281600859</v>
+      </c>
+      <c r="G82">
+        <v>-0.006933054205355081</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.006440678011164309</v>
+        <v>0.02872859810076237</v>
       </c>
       <c r="C83">
-        <v>-0.02928400882386389</v>
+        <v>-0.02098359174976243</v>
       </c>
       <c r="D83">
-        <v>-0.02585636235807122</v>
+        <v>-0.00527310031382469</v>
       </c>
       <c r="E83">
-        <v>-0.01130776987937303</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.0277756296433913</v>
+      </c>
+      <c r="F83">
+        <v>-0.01677888479675122</v>
+      </c>
+      <c r="G83">
+        <v>0.02246510135323369</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.008244247307604233</v>
+        <v>0.2373076437004737</v>
       </c>
       <c r="C85">
-        <v>-0.1846699772648865</v>
+        <v>-0.1466082721992593</v>
       </c>
       <c r="D85">
-        <v>-0.2219115063261888</v>
+        <v>0.02076445952112893</v>
       </c>
       <c r="E85">
-        <v>-0.07286316968609192</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.1299070235343802</v>
+      </c>
+      <c r="F85">
+        <v>0.1925453378046742</v>
+      </c>
+      <c r="G85">
+        <v>-0.05698380808110193</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.005495528584734508</v>
+        <v>0.01208815786071104</v>
       </c>
       <c r="C86">
-        <v>-0.01072389718993927</v>
+        <v>-0.02201079686470574</v>
       </c>
       <c r="D86">
-        <v>-0.008590847204088608</v>
+        <v>-0.009713874190249744</v>
       </c>
       <c r="E86">
-        <v>-0.02147218269620678</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.0379944781498506</v>
+      </c>
+      <c r="F86">
+        <v>-0.01461052641627885</v>
+      </c>
+      <c r="G86">
+        <v>0.04945715710536877</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.006962265894039123</v>
+        <v>0.01619058582182851</v>
       </c>
       <c r="C87">
-        <v>-0.01236056850521008</v>
+        <v>-0.02786628342338578</v>
       </c>
       <c r="D87">
-        <v>-0.04038192639225679</v>
+        <v>-0.01177389248294582</v>
       </c>
       <c r="E87">
-        <v>-0.008838788388044061</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08001529013482063</v>
+      </c>
+      <c r="F87">
+        <v>-0.03772470141408185</v>
+      </c>
+      <c r="G87">
+        <v>0.04475642063292538</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02575444224120045</v>
+        <v>0.08901045450835471</v>
       </c>
       <c r="C88">
-        <v>-0.04593422508093519</v>
+        <v>-0.06105920291032364</v>
       </c>
       <c r="D88">
-        <v>-0.02303672546591052</v>
+        <v>-0.02148139878263436</v>
       </c>
       <c r="E88">
-        <v>-0.006959234451614804</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01699163320030625</v>
+      </c>
+      <c r="F88">
+        <v>0.0196678788164859</v>
+      </c>
+      <c r="G88">
+        <v>0.02474433013300286</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.05107111021727326</v>
+        <v>0.2201882779179076</v>
       </c>
       <c r="C89">
-        <v>-0.3255594920282988</v>
+        <v>0.3687574552604794</v>
       </c>
       <c r="D89">
-        <v>0.2888225985399833</v>
+        <v>0.008011795904781684</v>
       </c>
       <c r="E89">
-        <v>0.01340157990757223</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01788949520022638</v>
+      </c>
+      <c r="F89">
+        <v>0.03053107441444265</v>
+      </c>
+      <c r="G89">
+        <v>0.03506705789170466</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.03821530777905201</v>
+        <v>0.1888359379082336</v>
       </c>
       <c r="C90">
-        <v>-0.2417148434819357</v>
+        <v>0.3362306091128013</v>
       </c>
       <c r="D90">
-        <v>0.2639402508074634</v>
+        <v>0.0119516388414307</v>
       </c>
       <c r="E90">
-        <v>0.009565455100801151</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.006399150464358705</v>
+      </c>
+      <c r="F90">
+        <v>0.04452979717999653</v>
+      </c>
+      <c r="G90">
+        <v>-0.00246598105985698</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.002429462725175857</v>
+        <v>0.2063580186150319</v>
       </c>
       <c r="C91">
-        <v>-0.1949496481067759</v>
+        <v>-0.1362556846582928</v>
       </c>
       <c r="D91">
-        <v>-0.2103055581115627</v>
+        <v>0.02538897449876772</v>
       </c>
       <c r="E91">
-        <v>-0.05531739924736225</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.09452899306445854</v>
+      </c>
+      <c r="F91">
+        <v>0.1816889281181635</v>
+      </c>
+      <c r="G91">
+        <v>0.004683008046763074</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.004201830938811176</v>
+        <v>0.2083051479781735</v>
       </c>
       <c r="C92">
-        <v>-0.3517523679538785</v>
+        <v>0.2678938874954556</v>
       </c>
       <c r="D92">
-        <v>0.1627979169428814</v>
+        <v>0.05384889722397548</v>
       </c>
       <c r="E92">
-        <v>-0.005377128335318195</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.0115415417771524</v>
+      </c>
+      <c r="F92">
+        <v>0.1263679809936686</v>
+      </c>
+      <c r="G92">
+        <v>0.07032455135662212</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.03568844635437303</v>
+        <v>0.215180759276123</v>
       </c>
       <c r="C93">
-        <v>-0.2809808021623105</v>
+        <v>0.3333063599768721</v>
       </c>
       <c r="D93">
-        <v>0.2669766073475395</v>
+        <v>0.0188784107722707</v>
       </c>
       <c r="E93">
-        <v>-0.01497262774540761</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.003398743078937491</v>
+      </c>
+      <c r="F93">
+        <v>0.02567860299310568</v>
+      </c>
+      <c r="G93">
+        <v>-0.001773870497412699</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.01902177363994302</v>
+        <v>0.2804655809674087</v>
       </c>
       <c r="C94">
-        <v>-0.2451384734881842</v>
+        <v>-0.1582243448852765</v>
       </c>
       <c r="D94">
-        <v>-0.1992123936241454</v>
+        <v>0.01465835629463173</v>
       </c>
       <c r="E94">
-        <v>-0.1053457803012473</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1380090804936253</v>
+      </c>
+      <c r="F94">
+        <v>0.3999990239458182</v>
+      </c>
+      <c r="G94">
+        <v>-0.114078531251661</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.006588199233956917</v>
+        <v>0.08472332891246483</v>
       </c>
       <c r="C95">
-        <v>-0.04818490444878661</v>
+        <v>-0.07683740249711697</v>
       </c>
       <c r="D95">
-        <v>-0.0626604115523747</v>
+        <v>0.006914495116868857</v>
       </c>
       <c r="E95">
-        <v>-0.1135199924985024</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.09430949195440257</v>
+      </c>
+      <c r="F95">
+        <v>-0.1524833245527212</v>
+      </c>
+      <c r="G95">
+        <v>-0.04288087604206482</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.003921965703186652</v>
+        <v>0.2088788260360963</v>
       </c>
       <c r="C98">
-        <v>-0.1678703158120202</v>
+        <v>-0.04826669450710402</v>
       </c>
       <c r="D98">
-        <v>-0.1109019064465185</v>
+        <v>0.01614265696727084</v>
       </c>
       <c r="E98">
-        <v>-0.08224237279967209</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.08135741295729759</v>
+      </c>
+      <c r="F98">
+        <v>-0.2429567314007924</v>
+      </c>
+      <c r="G98">
+        <v>-0.04433336240227804</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.007075091988911065</v>
+        <v>0.01361459722018133</v>
       </c>
       <c r="C101">
-        <v>-0.02070232710217693</v>
+        <v>-0.02100083513188837</v>
       </c>
       <c r="D101">
-        <v>-0.01353070276062701</v>
+        <v>-0.006945422164352877</v>
       </c>
       <c r="E101">
-        <v>0.00515646130797148</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.00669015175326183</v>
+      </c>
+      <c r="F101">
+        <v>0.0132228977828331</v>
+      </c>
+      <c r="G101">
+        <v>0.02912525883054528</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01268907764006055</v>
+        <v>0.1236388241960937</v>
       </c>
       <c r="C102">
-        <v>-0.1120721115688107</v>
+        <v>-0.08122973989286185</v>
       </c>
       <c r="D102">
-        <v>-0.1109779543137317</v>
+        <v>-5.678995430913933e-05</v>
       </c>
       <c r="E102">
-        <v>-0.03427332705513311</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03900450675036853</v>
+      </c>
+      <c r="F102">
+        <v>0.05780833123881481</v>
+      </c>
+      <c r="G102">
+        <v>-0.006636987463762269</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.002020960102779297</v>
+        <v>0.004248046379742403</v>
       </c>
       <c r="C103">
-        <v>-0.01693660197181428</v>
+        <v>-0.005540980705820696</v>
       </c>
       <c r="D103">
-        <v>-0.02777921152468361</v>
+        <v>-0.0006838174416647181</v>
       </c>
       <c r="E103">
-        <v>0.01043372735651854</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.000158299011509166</v>
+      </c>
+      <c r="F103">
+        <v>0.008272077424496033</v>
+      </c>
+      <c r="G103">
+        <v>0.01869198793181039</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9863009428673071</v>
+        <v>0.03742123198280387</v>
       </c>
       <c r="C104">
-        <v>0.09257651040977034</v>
+        <v>0.04415404357793446</v>
       </c>
       <c r="D104">
-        <v>-0.002072996874732347</v>
+        <v>-0.9864751912464673</v>
       </c>
       <c r="E104">
-        <v>0.02326411434344039</v>
+        <v>-0.04624023305686917</v>
+      </c>
+      <c r="F104">
+        <v>0.04041262185546634</v>
+      </c>
+      <c r="G104">
+        <v>-0.00338399656278756</v>
       </c>
     </row>
   </sheetData>
